--- a/00_documents/資料02.5.画面遷移図.xlsx
+++ b/00_documents/資料02.5.画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w0rkadm1n\Desktop\workSpace_webApp\Django\test_comment_list\00_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CB3FCE-13A3-41CE-A255-68E655C75B0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63D3287-4071-45AD-B84B-A769021C9EBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,6 +266,17 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>login.html</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -528,114 +539,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:prstClr val="black"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>LoginView(LoginView)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:prstClr val="black"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>template_name</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:prstClr val="black"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>= "login.html"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -650,15 +553,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -673,8 +576,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="5219700"/>
-          <a:ext cx="2724150" cy="1714500"/>
+          <a:off x="8763000" y="6525260"/>
+          <a:ext cx="2727960" cy="1577340"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -724,15 +627,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>63209</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>155898</xdr:rowOff>
+      <xdr:colOff>239285</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>3622</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>26216</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>188679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -747,8 +650,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8292809" y="3375348"/>
-          <a:ext cx="1848141" cy="3314824"/>
+          <a:off x="12583685" y="6088612"/>
+          <a:ext cx="1844331" cy="3200524"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -799,14 +702,6 @@
             </a:rPr>
             <a:t>ホーム画面</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -827,16 +722,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>635861</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>75791</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>232093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>111896</xdr:rowOff>
+      <xdr:rowOff>158569</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -854,8 +749,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8179661" y="6983730"/>
-          <a:ext cx="507139" cy="214766"/>
+          <a:off x="8305391" y="7613968"/>
+          <a:ext cx="457609" cy="640851"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -892,15 +787,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>232773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>63209</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>79760</xdr:rowOff>
+      <xdr:colOff>237380</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>26284</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -918,8 +813,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8667750" y="6076950"/>
-          <a:ext cx="996659" cy="441710"/>
+          <a:off x="11494770" y="7656830"/>
+          <a:ext cx="1087010" cy="32997"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -957,14 +852,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>125484</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>103504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:colOff>527686</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>48576</xdr:rowOff>
+      <xdr:rowOff>48575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -982,12 +877,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="7765480" y="5909749"/>
-          <a:ext cx="284104" cy="4480460"/>
+          <a:off x="7554949" y="6161439"/>
+          <a:ext cx="630871" cy="4517002"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 180463"/>
+            <a:gd name="adj1" fmla="val 136236"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="34925">
@@ -1019,80 +914,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>43295</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>89575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="86" name="コネクタ: 曲線 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE04027-BE3C-4836-A3A1-3BF51F456BAE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="110" idx="3"/>
-          <a:endCxn id="88" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="12534900" y="2339975"/>
-          <a:ext cx="1910195" cy="2207300"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="34925">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:tailEnd type="triangle" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>43295</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>234950</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>676390</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>383597</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>234950</xdr:rowOff>
+      <xdr:colOff>332797</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1107,8 +938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14445095" y="730250"/>
-          <a:ext cx="3083502" cy="3219450"/>
+          <a:off x="17135590" y="3052445"/>
+          <a:ext cx="3085407" cy="2971800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1311,80 +1142,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>222251</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>205895</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>77061</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>15176</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>57760</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="コネクタ: 曲線 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB082D5-3BBA-4E77-8BD8-4DA142DD0D29}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="113" idx="3"/>
-          <a:endCxn id="118" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12566651" y="5406545"/>
-          <a:ext cx="1850325" cy="1090115"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="34925">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:tailEnd type="triangle" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>635226</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>63046</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>633956</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>75791</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>160746</xdr:rowOff>
+      <xdr:rowOff>204561</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1399,8 +1166,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6807426" y="6463846"/>
-          <a:ext cx="1370330" cy="1469300"/>
+          <a:off x="6935061" y="7496356"/>
+          <a:ext cx="1370330" cy="1518830"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1441,14 +1208,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>InputField</a:t>
+            <a:t>form.as_p</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -1551,668 +1312,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>507999</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38548</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>125484</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>56601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>140602</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="四角形: 角を丸くする 109">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717D5BA2-EFFB-4C27-BE3F-17DAABEEE94C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9485312" y="3848548"/>
-          <a:ext cx="1754188" cy="578304"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7627"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Button</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:prstClr val="black"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・マイプロフィール</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:prstClr val="black"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>481732</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>17765</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>222251</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>146374</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="四角形: 角を丸くする 112">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1323711B-0A17-469E-BB0B-62D48BB8164E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9459045" y="4542140"/>
-          <a:ext cx="1812206" cy="842984"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7627"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Button</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:prstClr val="black"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・コメントを投稿</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:prstClr val="black"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:prstClr val="black"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・コメントの履歴を見る</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:prstClr val="black"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>229757</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>207916</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>28764</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="コネクタ: 曲線 119">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C714DF-0E56-4091-9B7B-876E2C264DA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="121" idx="3"/>
-          <a:endCxn id="48" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12574157" y="6399166"/>
-          <a:ext cx="2024493" cy="5516798"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="34925">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:tailEnd type="triangle" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>489238</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19786</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>229757</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>148396</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="四角形: 角を丸くする 120">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C8E335B-ADCE-4FC1-BBAA-6B3690AA8A6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9466551" y="5496661"/>
-          <a:ext cx="1812206" cy="842985"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7627"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Button</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:prstClr val="black"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・相談を投稿</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:prstClr val="black"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:prstClr val="black"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・相談の履歴を見る</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:prstClr val="black"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>231316</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>340179</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>163281</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="四角形: 角を丸くする 143">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4D60DA-7DC4-4851-8929-93BFC6B2D348}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8031617" y="5708191"/>
-          <a:ext cx="1285875" cy="646340"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7627"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Button</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:prstClr val="black"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・ログアウト</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:prstClr val="black"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>125485</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>48577</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>439240</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>78584</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>71575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>105592</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2224,17 +1333,19 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="144" idx="1"/>
-          <a:endCxn id="5" idx="2"/>
+          <a:stCxn id="144" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="5667303" y="8292032"/>
-          <a:ext cx="6548301" cy="501061"/>
+        <a:xfrm rot="5400000">
+          <a:off x="7960734" y="1822551"/>
+          <a:ext cx="734791" cy="5432491"/>
         </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="34925">
           <a:solidFill>
@@ -2352,8 +1463,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17246812" y="7671124"/>
-          <a:ext cx="3419568" cy="4128417"/>
+          <a:off x="17276045" y="7496507"/>
+          <a:ext cx="3424245" cy="4035652"/>
           <a:chOff x="12829103" y="4495201"/>
           <a:chExt cx="3397015" cy="4058638"/>
         </a:xfrm>
@@ -3169,8 +2280,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17422771" y="12891908"/>
-          <a:ext cx="3430501" cy="4325453"/>
+          <a:off x="17452004" y="12597242"/>
+          <a:ext cx="3436348" cy="4227231"/>
           <a:chOff x="12829103" y="4495201"/>
           <a:chExt cx="3397015" cy="4262116"/>
         </a:xfrm>
@@ -3219,6 +2330,17 @@
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
           <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>consult.html</a:t>
+            </a:r>
+          </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
@@ -4182,16 +3304,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>632381</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>62786</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>82869</xdr:rowOff>
+      <xdr:rowOff>91759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>643074</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>75384</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>10479</xdr:rowOff>
+      <xdr:rowOff>19369</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4206,8 +3328,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6804581" y="5797869"/>
-          <a:ext cx="1382293" cy="613410"/>
+          <a:off x="6920786" y="6848159"/>
+          <a:ext cx="1384198" cy="651510"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4278,16 +3400,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>643074</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>75384</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>159069</xdr:rowOff>
+      <xdr:rowOff>180024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>233680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4305,8 +3427,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8186874" y="6102669"/>
-          <a:ext cx="499926" cy="881061"/>
+          <a:off x="8304984" y="7177724"/>
+          <a:ext cx="458016" cy="536256"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -4366,8 +3488,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22858530" y="6476130"/>
-          <a:ext cx="2547427" cy="2936990"/>
+          <a:off x="22897118" y="6328797"/>
+          <a:ext cx="2550934" cy="2871509"/>
           <a:chOff x="20503205" y="4366850"/>
           <a:chExt cx="2533677" cy="3046321"/>
         </a:xfrm>
@@ -4887,8 +4009,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22699317" y="11828435"/>
-          <a:ext cx="2588840" cy="2923656"/>
+          <a:off x="22736735" y="11561053"/>
+          <a:ext cx="2593517" cy="2858175"/>
           <a:chOff x="20497800" y="9620250"/>
           <a:chExt cx="2571777" cy="3046321"/>
         </a:xfrm>
@@ -5265,119 +4387,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>487816</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>220095</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>154442</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>196283</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="172" name="吹き出し: 四角形 171">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B310398-A7E0-467E-B8E8-AE9EC751E9A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10155691" y="7840095"/>
-          <a:ext cx="2428876" cy="1166813"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 21741"/>
-            <a:gd name="adj2" fmla="val -164343"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ゆくゆくは</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>header</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>にしたいけど自信無いので便宜的に</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>body</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>で。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5784,15 +4793,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>550612</xdr:colOff>
+      <xdr:colOff>536757</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>102428</xdr:rowOff>
+      <xdr:rowOff>90478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>556186</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>186547</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>460416</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>97793</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5803,12 +4812,15 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="3"/>
+          <a:endCxn id="63" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4706976" y="2928755"/>
-          <a:ext cx="1391028" cy="319647"/>
+          <a:off x="4651557" y="3519478"/>
+          <a:ext cx="2666859" cy="7315"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -5844,16 +4856,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>546141</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2486</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>460416</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>156791</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>358843</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95944</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>275023</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5868,8 +4880,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6087959" y="2828813"/>
-          <a:ext cx="1890884" cy="800040"/>
+          <a:off x="7318416" y="3128591"/>
+          <a:ext cx="1872007" cy="796403"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5912,15 +4924,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>45721</xdr:colOff>
+      <xdr:colOff>270511</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>194311</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>422911</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5935,8 +4947,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10332721" y="1095375"/>
-          <a:ext cx="2891790" cy="2889885"/>
+          <a:off x="10557511" y="948690"/>
+          <a:ext cx="2895600" cy="2891790"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5988,36 +5000,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ようこそ、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ユーザ名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
+            <a:t>&lt;header&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6028,7 +5016,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>〇</a:t>
+            <a:t>〇「ようこそ、</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -6036,7 +5024,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>&lt;header&gt;</a:t>
+            <a:t>(</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -6044,7 +5032,23 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ナビゲーションメニュー</a:t>
+            <a:t>ユーザ名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -6060,7 +5064,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・マイプロフィール</a:t>
+            <a:t>〇ナビゲーションメニュー</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -6076,12 +5080,212 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・ログアウトボタン</a:t>
+            <a:t>・ホーム</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・コメント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・相談</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・マイプロフィール</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>〇ログアウトボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/header&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>119199</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>126541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>23949</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52791</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="四角形: 角を丸くする 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4D60DA-7DC4-4851-8929-93BFC6B2D348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10406199" y="3555541"/>
+          <a:ext cx="1276350" cy="612050"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7627"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Button</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -6356,8 +5560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AU73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7046,7 +6250,9 @@
       <c r="AU31" s="6"/>
     </row>
     <row r="32" spans="7:47">
-      <c r="R32" s="4"/>
+      <c r="R32" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -7078,9 +6284,7 @@
       <c r="AU32" s="6"/>
     </row>
     <row r="33" spans="16:47">
-      <c r="R33" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="R33" s="4"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
